--- a/Document/更新履歴.xlsx
+++ b/Document/更新履歴.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UE4\01_Amber\trunk\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F5C53F56-57DE-4499-AE35-68140C8C94D9}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{031505F6-11A9-4405-ACDC-59B90D2F5966}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" xr2:uid="{2407A5B4-FA1C-4A0C-9476-25D86EABF760}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>プロジェクト作成/SVN導入</t>
     <rPh sb="6" eb="8">
@@ -33,6 +33,19 @@
     </rPh>
     <rPh sb="12" eb="14">
       <t>ドウニュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UI用関数ライブラリ用意</t>
+    <rPh sb="2" eb="3">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カンスウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヨウイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -404,10 +417,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5312D15-4565-4441-86FB-F686DB5B5899}">
-  <dimension ref="A2:B2"/>
+  <dimension ref="A2:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -424,6 +437,14 @@
         <v>0</v>
       </c>
     </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A3" s="1">
+        <v>43319</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
